--- a/SendPDF/wwwroot/UploadFile/file_import_test.xlsx
+++ b/SendPDF/wwwroot/UploadFile/file_import_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haicu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{974765DF-7548-4CD6-B367-CA69B256F1EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36479D2-CB54-4CC8-B81C-09912AEFB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{2EF04D7D-662C-4941-B77F-0EC5CBE7F56F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>TT</t>
   </si>
@@ -144,19 +144,7 @@
     <t>Kiều Thị Hoài Thu</t>
   </si>
   <si>
-    <t>Điều trị theo yêu cầu</t>
-  </si>
-  <si>
-    <t>NT0141</t>
-  </si>
-  <si>
-    <t>Phạm Thuý Hường</t>
-  </si>
-  <si>
     <t>mrfix1407@gmail.com</t>
-  </si>
-  <si>
-    <t>ndcong142395@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -165,7 +153,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -253,24 +241,24 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -590,7 +578,7 @@
   <dimension ref="A1:AF3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -718,7 +706,7 @@
         <v>34</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="7">
         <v>5700000</v>
@@ -770,89 +758,11 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="7">
-        <v>12003440</v>
-      </c>
-      <c r="G3" s="7">
-        <v>13261000.000000004</v>
-      </c>
-      <c r="H3" s="7">
-        <v>1100000</v>
-      </c>
-      <c r="I3" s="7">
-        <v>500000</v>
-      </c>
-      <c r="J3" s="7">
-        <v>6000000</v>
-      </c>
-      <c r="K3" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="L3" s="7">
-        <v>73206000</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="7">
-        <v>11616524</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>300000</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>118986964</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>369999.99999999994</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>3301840.0000000005</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>114655124</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>866733</v>
-      </c>
+      <c r="E3" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FC594977-5ECA-40CD-8018-CDFC2F1EB719}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{B7FEACE7-1E54-44ED-AF8B-AFD33ABE095D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SendPDF/wwwroot/UploadFile/file_import_test.xlsx
+++ b/SendPDF/wwwroot/UploadFile/file_import_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haicu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36479D2-CB54-4CC8-B81C-09912AEFB11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B6A608-D92D-4D8C-B1CA-BDF68DC85F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="2025" windowWidth="29040" windowHeight="15720" xr2:uid="{2EF04D7D-662C-4941-B77F-0EC5CBE7F56F}"/>
+    <workbookView xWindow="-23895" yWindow="5145" windowWidth="19110" windowHeight="10035" xr2:uid="{2EF04D7D-662C-4941-B77F-0EC5CBE7F56F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>TT</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>mrfix1407@gmail.com</t>
+  </si>
+  <si>
+    <t>mrfishhotro@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -575,14 +578,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DED46AD-42CA-4BD8-B8D2-44B590C2BF92}">
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="4" max="4" width="15.453125" customWidth="1"/>
     <col min="5" max="5" width="25.1796875" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.08984375" bestFit="1" customWidth="1"/>
@@ -758,11 +762,77 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="7" customFormat="1">
-      <c r="E3" s="8"/>
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="7">
+        <v>5700000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1966800</v>
+      </c>
+      <c r="H3" s="7">
+        <v>550000</v>
+      </c>
+      <c r="I3" s="7">
+        <v>500000</v>
+      </c>
+      <c r="J3" s="7">
+        <v>500000</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="L3" s="7">
+        <v>6174000</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>586374</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>16977174</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>16427174</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>366093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="7" customFormat="1">
+      <c r="E4" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{FC594977-5ECA-40CD-8018-CDFC2F1EB719}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{21CAD6D9-B789-4CF7-B397-0A9E1175EC6D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
